--- a/files/all_videos.xlsx
+++ b/files/all_videos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/luis_quissak_atos_net/Documents/source-code/pessoal/blog-api-2024/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C05DE51-A6A8-4163-AC44-49BA3AF2C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{5C05DE51-A6A8-4163-AC44-49BA3AF2C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3075253-E13F-49C3-A3CD-A621E2D74914}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6DB51C3D-379D-4C71-8828-E554868624B6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6DB51C3D-379D-4C71-8828-E554868624B6}"/>
   </bookViews>
   <sheets>
     <sheet name="all_videos (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="all_videos" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="all_videos" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'all_videos (2)'!$A$1:$C$99</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="237">
   <si>
     <t>publishedAt,title,description</t>
   </si>
@@ -701,6 +702,48 @@
   </si>
   <si>
     <t>SporTV ao vivo.</t>
+  </si>
+  <si>
+    <t>_Filosofia da Linguagem</t>
+  </si>
+  <si>
+    <t>Playlist</t>
+  </si>
+  <si>
+    <t>Generalidades</t>
+  </si>
+  <si>
+    <t>_Filosofia da Mente</t>
+  </si>
+  <si>
+    <t>_Ética</t>
+  </si>
+  <si>
+    <t>Inspiração</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Família</t>
+  </si>
+  <si>
+    <t>Vai-vai</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Dreyfus, Heiddeger</t>
+  </si>
+  <si>
+    <t>Kant, Schopenhauer</t>
   </si>
 </sst>
 </file>
@@ -826,7 +869,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,8 +1049,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1122,6 +1177,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1167,10 +1259,48 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1216,15 +1346,27 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1241,23 +1383,35 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{7AD8122E-1363-48BE-B759-A7BD90B664A8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="2">
+    <queryTableFields count="5">
       <queryTableField id="1" name="publishedAt" tableColumnId="1"/>
       <queryTableField id="2" name="title" tableColumnId="2"/>
       <queryTableField id="3" name="description" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9ABED84-96CC-48D0-A21F-7A9E7F5CB80A}" name="all_videos" displayName="all_videos" ref="A1:C99" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C99" xr:uid="{A9ABED84-96CC-48D0-A21F-7A9E7F5CB80A}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A47D48C2-5DFB-4A1D-894E-A82F78849742}" uniqueName="1" name="publishedAt" queryTableFieldId="1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{09424D34-9F76-43DF-B0AA-6606F0E1DD3B}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{FF45EAD3-ABBD-46E1-AB95-6CA014D9C780}" uniqueName="3" name="description" queryTableFieldId="3" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A9ABED84-96CC-48D0-A21F-7A9E7F5CB80A}" name="all_videos" displayName="all_videos" ref="A1:E99" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:E99" xr:uid="{A9ABED84-96CC-48D0-A21F-7A9E7F5CB80A}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="_Ética"/>
+        <filter val="_Filosofia da Linguagem"/>
+        <filter val="_Filosofia da Mente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A47D48C2-5DFB-4A1D-894E-A82F78849742}" uniqueName="1" name="publishedAt" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{09424D34-9F76-43DF-B0AA-6606F0E1DD3B}" uniqueName="2" name="title" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FF45EAD3-ABBD-46E1-AB95-6CA014D9C780}" uniqueName="3" name="description" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{33CEDF04-12BB-476A-AA66-EB8D4EA0CDCB}" uniqueName="4" name="Playlist" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{46C1FC1F-527A-44BD-B81F-97535D3DFAF9}" uniqueName="5" name="Autores" queryTableFieldId="5" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1580,1106 +1734,1466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DC6B58-2B92-445F-944F-B4D4CA4FD968}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.07421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.53515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.84375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.23046875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45557.801238425927</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>43870.342222222222</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>44829.521886574075</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45480.438935185186</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>44380.805300925924</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>45221.898240740738</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="D7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>43891.620706018519</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45557.80133101852</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>44380.803182870368</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45557.801122685189</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45634.432314814818</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>44639.390162037038</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45634.428703703707</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45634.428900462961</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>44560.410960648151</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>44639.391377314816</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>44666.487581018519</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" customFormat="1" ht="54" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>44380.811550925922</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>45115.023379629631</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>45725.748969907407</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>45669.331863425927</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>43891.656307870369</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>44639.398090277777</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>45725.749340277776</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>42703.819837962961</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>45725.748449074075</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45611.544745370367</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45634.394780092596</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45634.428078703706</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45634.4296875</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>45248.840856481482</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>41685.067071759258</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="D33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>45683.734409722223</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>44560.713321759256</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45605.664120370369</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="D36" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>42505.889502314814</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="D37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>45687.445208333331</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="D38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>44797.383483796293</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>45711.448738425926</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>45685.562002314815</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>45115.016273148147</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>45735.985092592593</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>44910.959097222221</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>45193.817442129628</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>43993.545266203706</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45506.526817129627</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>45709.817407407405</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="D48" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>45221.898946759262</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>44094.405451388891</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45528.729791666665</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="C51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>45709.817407407405</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="D52" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>45115.023518518516</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>45685.460925925923</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>42938.611863425926</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>43988.403194444443</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>41868.646365740744</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="D57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>45115.023611111108</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>41781.016493055555</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="D59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>44094.405451388891</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="D60" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>44859.848101851851</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>45576.800266203703</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45294.90488425926</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="D63" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>43984.575254629628</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="C64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>44213.658078703702</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="C65" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>45115.023460648146</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="C66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>44639.388425925928</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="D67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>45202.003888888888</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45528.723587962966</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="C69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>44219.735069444447</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>186</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>44646.809421296297</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>187</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>45556.496018518519</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="D72" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>45623.841400462959</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="C73" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>44639.383368055554</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45527.941446759258</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="C75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>44639.382106481484</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>45149.771435185183</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="C77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>44639.371504629627</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>44639.378391203703</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="C79" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>45497.799293981479</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="D80" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>43994.968530092592</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+      <c r="D81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>45295.996979166666</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="D82" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>44812.832835648151</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>44639.376921296294</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>45664.979930555557</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="C85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>44795.398773148147</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
         <v>45611.498391203706</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="D87" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
         <v>45325.53638888889</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="D88" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <v>45170.76085648148</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="C89" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>45412.977581018517</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="C90" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
         <v>45269.455891203703</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="D91" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>45171.513032407405</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="C92" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>44859.845706018517</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>174</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="D93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
         <v>45653.496805555558</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="D94" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>43456.156770833331</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>45710.678020833337</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>218</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45382.931296296294</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45382.933136574073</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45298.652719907404</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>222</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2691,6 +3205,307 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE2B37-5BD8-454E-802D-3ACC4D8F4E18}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.921875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.15234375" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="4" max="4" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>45709.817407407405</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>45653.496805555558</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>45623.841400462959</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>45611.498391203706</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45576.800266203703</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45556.496018518519</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>45497.799293981479</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>45412.977581018517</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>45325.53638888889</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>45295.996979166666</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>45269.455891203703</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>45202.003888888888</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>45171.513032407405</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>45170.76085648148</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>45149.771435185183</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>44094.405451388891</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>43993.545266203706</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition descending="1" ref="A1:A18"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7667F7B4-C4AC-487D-9CD6-5BD9C979037D}">
   <dimension ref="A1:C99"/>
   <sheetViews>
